--- a/My 3D RPG/Assets/StaticData/Excel/Novel.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Novel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="149">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,18 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stagePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portraitIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtlasType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,25 +110,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portrait_kohaku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portrait_Amber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portrait_Beidou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NovelChar</t>
   </si>
   <si>
-    <t>노을진 복도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미사키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?? 왜 아무도 없지??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흠…흠…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당연하지! 여긴 내가 만든 가상의 공간이니깐!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 이름은 엠버! 스페라 마을의 마법 견습생이지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하…하아…??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,7 +317,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유코 왜 시무룩해</t>
+    <t>유코 왜 시무룩해..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 스페라 마을에 침략자들이 쳐들어 왔어..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름은 엠버! 스페라 마을의주민이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을은 원래 다른 마을에 보호를 받는 마을이였는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 마을이 침략자들에게 점령 당한 뒤에 우리 마을이 노려지게 되었어..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 왜 우리랑 상관 있는데?..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을은 대대로 다른 마을에 보호를 받아왔었는데 만약의 상황을 대비하기 위해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 차원으로 넘어갈 수 있는 술식이 있거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 다른 차원의 전사로 선정된 사람에게 도움을 받았던 기록이 있어서 내가 여기로 온거야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 우리를 만나로 온거다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃기지마! 무슨..아무것도 모르는 차원으로가서 마을을 구하라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안하지만 너가 선정된건 아니라.. 너 옆에 있는 녀석이..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에…?에에? 코하쿠가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 나??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 너..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 너희 마을이 위험하다는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엠버 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응.. 한시가 급한 상황이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁까지는 돌아 올 수있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁까지는 돌아 올 수있어! 내가 보장할게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 뭐.. 한번 가보지 뭐~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하쿠 너 정말로 갈거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐..그냥 다른 차원은 어떻게 생겼나 궁금하기도 하고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코하쿠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 도와주고 싶달까?..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코 너도 간다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 갈래~ 뭔가 재미있어보여~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고마워!!  우리 마을을 지켜주면 내가 꼭 보답할게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들..정말 고마워!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 부터 차원 이동 영창을 시작할거야 다들 모여줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 가슴이 두근두근 거려!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가자~ 이세계~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜!! 난 몰라~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠버를 따라 코하쿠 유코 미사키는 스페라 마을로 차원이동을 하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NovelChar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_kohaku4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_yuko0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_kohaku4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_yuko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_kohaku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게 운동좀 해~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_kohaku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_kohaku0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_yuko0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_Amber0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_yuko5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_kohaku5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_yuko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_Amber0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_yuko4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하..진짜.. 너희 둘이 간다고하면.. 나도 갈 수밖에 없잖아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_misaki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠흠…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_Beidou0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,15 +955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
@@ -720,38 +971,35 @@
     <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -766,565 +1014,1739 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1040</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1041</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1042</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1043</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1046</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1047</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1048</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1049</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1051</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1052</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1053</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1055</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1056</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1057</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1058</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1059</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1060</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1061</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1062</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1063</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1064</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1065</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1066</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1067</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1068</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1069</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1070</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1071</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1072</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1073</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1074</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1075</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1076</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4">
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="E81" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
         <v>15</v>
       </c>
-      <c r="D61">
+      <c r="D82">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61">
+      <c r="E82" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>200</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>101</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="E83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>201</v>
+      </c>
+      <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="D62">
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62">
+      <c r="E84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>102</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>200</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>201</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="E85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" t="s">
         <v>21</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
+      <c r="G85" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
